--- a/public/Subdistrict/data_kecamatan_template.xlsx
+++ b/public/Subdistrict/data_kecamatan_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C73B4C-10C6-419C-9BEE-A74ABD35E2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DEDEB7-B483-4084-8987-59B2B2B6605A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,18 +135,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -198,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -212,17 +206,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -537,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +579,7 @@
         <v>1000</v>
       </c>
       <c r="D2" s="1">
-        <v>182</v>
+        <v>2281</v>
       </c>
       <c r="E2" s="4">
         <v>70</v>
@@ -597,15 +587,14 @@
       <c r="F2" s="2">
         <v>7.44</v>
       </c>
-      <c r="G2" s="4">
-        <v>70</v>
-      </c>
-      <c r="H2" s="6">
-        <v>80</v>
-      </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="8"/>
+      <c r="G2" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="H2" s="5">
+        <v>80</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -617,8 +606,8 @@
       <c r="C3" s="1">
         <v>1000</v>
       </c>
-      <c r="D3" s="5">
-        <v>182</v>
+      <c r="D3" s="1">
+        <v>2280</v>
       </c>
       <c r="E3" s="4">
         <v>70</v>
@@ -626,15 +615,14 @@
       <c r="F3" s="3">
         <v>7.33</v>
       </c>
-      <c r="G3" s="4">
-        <v>70</v>
-      </c>
-      <c r="H3" s="6">
-        <v>80</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
+      <c r="G3" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>80</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -647,7 +635,7 @@
         <v>500</v>
       </c>
       <c r="D4" s="1">
-        <v>189</v>
+        <v>2263</v>
       </c>
       <c r="E4" s="4">
         <v>70</v>
@@ -655,15 +643,14 @@
       <c r="F4" s="3">
         <v>4.49</v>
       </c>
-      <c r="G4" s="4">
-        <v>70</v>
-      </c>
-      <c r="H4" s="6">
-        <v>80</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
+      <c r="G4" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>80</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -676,7 +663,7 @@
         <v>500</v>
       </c>
       <c r="D5" s="1">
-        <v>164</v>
+        <v>1972</v>
       </c>
       <c r="E5" s="4">
         <v>70</v>
@@ -684,15 +671,15 @@
       <c r="F5" s="3">
         <v>6.83</v>
       </c>
-      <c r="G5" s="4">
-        <v>70</v>
-      </c>
-      <c r="H5" s="6">
-        <v>80</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="9"/>
+      <c r="G5" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>80</v>
+      </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -705,7 +692,7 @@
         <v>500</v>
       </c>
       <c r="D6" s="1">
-        <v>170</v>
+        <v>2046</v>
       </c>
       <c r="E6" s="4">
         <v>70</v>
@@ -713,15 +700,15 @@
       <c r="F6" s="3">
         <v>7.1</v>
       </c>
-      <c r="G6" s="4">
-        <v>70</v>
-      </c>
-      <c r="H6" s="6">
-        <v>80</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="9"/>
+      <c r="G6" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="H6" s="5">
+        <v>80</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -734,7 +721,7 @@
         <v>100</v>
       </c>
       <c r="D7" s="1">
-        <v>162</v>
+        <v>1938</v>
       </c>
       <c r="E7" s="4">
         <v>70</v>
@@ -742,15 +729,15 @@
       <c r="F7" s="3">
         <v>7.17</v>
       </c>
-      <c r="G7" s="4">
-        <v>70</v>
-      </c>
-      <c r="H7" s="6">
-        <v>80</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="9"/>
+      <c r="G7" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="H7" s="5">
+        <v>80</v>
+      </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -762,8 +749,8 @@
       <c r="C8" s="1">
         <v>500</v>
       </c>
-      <c r="D8" s="5">
-        <v>162</v>
+      <c r="D8" s="1">
+        <v>1831</v>
       </c>
       <c r="E8" s="4">
         <v>70</v>
@@ -771,15 +758,15 @@
       <c r="F8" s="3">
         <v>7.05</v>
       </c>
-      <c r="G8" s="4">
-        <v>70</v>
-      </c>
-      <c r="H8" s="6">
-        <v>80</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="9"/>
+      <c r="G8" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="H8" s="5">
+        <v>80</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -791,8 +778,8 @@
       <c r="C9" s="1">
         <v>500</v>
       </c>
-      <c r="D9" s="5">
-        <v>172</v>
+      <c r="D9" s="1">
+        <v>1831</v>
       </c>
       <c r="E9" s="4">
         <v>70</v>
@@ -800,15 +787,15 @@
       <c r="F9" s="3">
         <v>6.89</v>
       </c>
-      <c r="G9" s="4">
-        <v>70</v>
-      </c>
-      <c r="H9" s="6">
-        <v>80</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="9"/>
+      <c r="G9" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>80</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -821,7 +808,7 @@
         <v>500</v>
       </c>
       <c r="D10" s="1">
-        <v>172</v>
+        <v>2067</v>
       </c>
       <c r="E10" s="4">
         <v>70</v>
@@ -829,15 +816,15 @@
       <c r="F10" s="3">
         <v>6.54</v>
       </c>
-      <c r="G10" s="4">
-        <v>70</v>
-      </c>
-      <c r="H10" s="6">
-        <v>80</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="9"/>
+      <c r="G10" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="H10" s="5">
+        <v>80</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -850,7 +837,7 @@
         <v>3000</v>
       </c>
       <c r="D11" s="1">
-        <v>244</v>
+        <v>2931</v>
       </c>
       <c r="E11" s="4">
         <v>70</v>
@@ -858,15 +845,15 @@
       <c r="F11" s="3">
         <v>6.69</v>
       </c>
-      <c r="G11" s="4">
-        <v>70</v>
-      </c>
-      <c r="H11" s="6">
-        <v>80</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="9"/>
+      <c r="G11" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="H11" s="5">
+        <v>80</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -879,7 +866,7 @@
         <v>3000</v>
       </c>
       <c r="D12" s="1">
-        <v>298</v>
+        <v>3530</v>
       </c>
       <c r="E12" s="4">
         <v>70</v>
@@ -887,15 +874,15 @@
       <c r="F12" s="3">
         <v>6.54</v>
       </c>
-      <c r="G12" s="4">
-        <v>70</v>
-      </c>
-      <c r="H12" s="6">
-        <v>80</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="9"/>
+      <c r="G12" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="H12" s="5">
+        <v>80</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -908,7 +895,7 @@
         <v>500</v>
       </c>
       <c r="D13" s="1">
-        <v>240</v>
+        <v>2884</v>
       </c>
       <c r="E13" s="4">
         <v>70</v>
@@ -916,15 +903,15 @@
       <c r="F13" s="3">
         <v>6.41</v>
       </c>
-      <c r="G13" s="4">
-        <v>70</v>
-      </c>
-      <c r="H13" s="6">
-        <v>80</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="9"/>
+      <c r="G13" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="H13" s="5">
+        <v>80</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -937,7 +924,7 @@
         <v>500</v>
       </c>
       <c r="D14" s="1">
-        <v>197</v>
+        <v>2364</v>
       </c>
       <c r="E14" s="4">
         <v>70</v>
@@ -945,15 +932,14 @@
       <c r="F14" s="3">
         <v>7.09</v>
       </c>
-      <c r="G14" s="4">
-        <v>70</v>
-      </c>
-      <c r="H14" s="6">
-        <v>80</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="8"/>
+      <c r="G14" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="H14" s="5">
+        <v>80</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -966,7 +952,7 @@
         <v>500</v>
       </c>
       <c r="D15" s="1">
-        <v>280</v>
+        <v>3357</v>
       </c>
       <c r="E15" s="4">
         <v>70</v>
@@ -974,15 +960,14 @@
       <c r="F15" s="3">
         <v>6.89</v>
       </c>
-      <c r="G15" s="4">
-        <v>70</v>
-      </c>
-      <c r="H15" s="6">
-        <v>80</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="8"/>
+      <c r="G15" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="H15" s="5">
+        <v>80</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -995,7 +980,7 @@
         <v>500</v>
       </c>
       <c r="D16" s="1">
-        <v>183</v>
+        <v>2194</v>
       </c>
       <c r="E16" s="4">
         <v>70</v>
@@ -1003,17 +988,16 @@
       <c r="F16" s="3">
         <v>6.11</v>
       </c>
-      <c r="G16" s="4">
-        <v>70</v>
-      </c>
-      <c r="H16" s="6">
-        <v>80</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G16" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="H16" s="5">
+        <v>80</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1024,7 +1008,7 @@
         <v>500</v>
       </c>
       <c r="D17" s="1">
-        <v>154</v>
+        <v>1853</v>
       </c>
       <c r="E17" s="4">
         <v>70</v>
@@ -1032,17 +1016,16 @@
       <c r="F17" s="3">
         <v>5.7</v>
       </c>
-      <c r="G17" s="4">
-        <v>70</v>
-      </c>
-      <c r="H17" s="6">
-        <v>80</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G17" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="H17" s="5">
+        <v>80</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1053,7 +1036,7 @@
         <v>500</v>
       </c>
       <c r="D18" s="1">
-        <v>270</v>
+        <v>3236</v>
       </c>
       <c r="E18" s="4">
         <v>70</v>
@@ -1061,17 +1044,16 @@
       <c r="F18" s="3">
         <v>6.09</v>
       </c>
-      <c r="G18" s="4">
-        <v>70</v>
-      </c>
-      <c r="H18" s="6">
-        <v>80</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G18" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="H18" s="5">
+        <v>80</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1082,7 +1064,7 @@
         <v>1000</v>
       </c>
       <c r="D19" s="1">
-        <v>304</v>
+        <v>3650</v>
       </c>
       <c r="E19" s="4">
         <v>70</v>
@@ -1090,17 +1072,16 @@
       <c r="F19" s="3">
         <v>5.42</v>
       </c>
-      <c r="G19" s="4">
-        <v>70</v>
-      </c>
-      <c r="H19" s="6">
-        <v>80</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G19" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="H19" s="5">
+        <v>80</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1111,7 +1092,7 @@
         <v>3000</v>
       </c>
       <c r="D20" s="1">
-        <v>382</v>
+        <v>4589</v>
       </c>
       <c r="E20" s="4">
         <v>70</v>
@@ -1119,17 +1100,16 @@
       <c r="F20" s="3">
         <v>6.05</v>
       </c>
-      <c r="G20" s="4">
-        <v>70</v>
-      </c>
-      <c r="H20" s="6">
-        <v>80</v>
-      </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G20" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="H20" s="5">
+        <v>80</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1139,8 +1119,8 @@
       <c r="C21" s="1">
         <v>1000</v>
       </c>
-      <c r="D21" s="5">
-        <v>382</v>
+      <c r="D21" s="1">
+        <v>3912</v>
       </c>
       <c r="E21" s="4">
         <v>70</v>
@@ -1148,17 +1128,16 @@
       <c r="F21" s="3">
         <v>5.32</v>
       </c>
-      <c r="G21" s="4">
-        <v>70</v>
-      </c>
-      <c r="H21" s="6">
-        <v>80</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G21" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="H21" s="5">
+        <v>80</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1169,7 +1148,7 @@
         <v>3000</v>
       </c>
       <c r="D22" s="1">
-        <v>270</v>
+        <v>3242</v>
       </c>
       <c r="E22" s="4">
         <v>70</v>
@@ -1177,17 +1156,16 @@
       <c r="F22" s="3">
         <v>5.29</v>
       </c>
-      <c r="G22" s="4">
-        <v>70</v>
-      </c>
-      <c r="H22" s="6">
-        <v>80</v>
-      </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G22" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="H22" s="5">
+        <v>80</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1198,7 +1176,7 @@
         <v>100</v>
       </c>
       <c r="D23" s="1">
-        <v>185</v>
+        <v>2694</v>
       </c>
       <c r="E23" s="4">
         <v>70</v>
@@ -1206,17 +1184,16 @@
       <c r="F23" s="3">
         <v>6.49</v>
       </c>
-      <c r="G23" s="4">
-        <v>70</v>
-      </c>
-      <c r="H23" s="6">
-        <v>80</v>
-      </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G23" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="H23" s="5">
+        <v>80</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1227,7 +1204,7 @@
         <v>500</v>
       </c>
       <c r="D24" s="1">
-        <v>185</v>
+        <v>2694</v>
       </c>
       <c r="E24" s="4">
         <v>70</v>
@@ -1235,17 +1212,16 @@
       <c r="F24" s="3">
         <v>6.57</v>
       </c>
-      <c r="G24" s="4">
-        <v>70</v>
-      </c>
-      <c r="H24" s="6">
-        <v>80</v>
-      </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="8"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G24" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="H24" s="5">
+        <v>80</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1255,8 +1231,8 @@
       <c r="C25" s="1">
         <v>3000</v>
       </c>
-      <c r="D25" s="5">
-        <v>185</v>
+      <c r="D25" s="1">
+        <v>2241</v>
       </c>
       <c r="E25" s="4">
         <v>70</v>
@@ -1264,17 +1240,16 @@
       <c r="F25" s="3">
         <v>6.43</v>
       </c>
-      <c r="G25" s="4">
-        <v>70</v>
-      </c>
-      <c r="H25" s="6">
-        <v>80</v>
-      </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="8"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G25" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="H25" s="5">
+        <v>80</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1284,8 +1259,8 @@
       <c r="C26" s="1">
         <v>3000</v>
       </c>
-      <c r="D26" s="5">
-        <v>185</v>
+      <c r="D26" s="1">
+        <v>2241</v>
       </c>
       <c r="E26" s="4">
         <v>70</v>
@@ -1293,15 +1268,14 @@
       <c r="F26" s="3">
         <v>6.74</v>
       </c>
-      <c r="G26" s="4">
-        <v>70</v>
-      </c>
-      <c r="H26" s="6">
-        <v>80</v>
-      </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="8"/>
+      <c r="G26" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="H26" s="5">
+        <v>80</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/Subdistrict/data_kecamatan_template.xlsx
+++ b/public/Subdistrict/data_kecamatan_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DEDEB7-B483-4084-8987-59B2B2B6605A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D171790A-0B98-40BF-B349-75DF1CE1B6D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,64 +46,64 @@
     <t>Kelembapan</t>
   </si>
   <si>
+    <t>Pesanggaran</t>
+  </si>
+  <si>
+    <t>Siliragung</t>
+  </si>
+  <si>
+    <t>Bangorejo</t>
+  </si>
+  <si>
+    <t>Purwoharjo</t>
+  </si>
+  <si>
+    <t>Tegaldlimo</t>
+  </si>
+  <si>
+    <t>Muncar</t>
+  </si>
+  <si>
+    <t>Cluring</t>
+  </si>
+  <si>
+    <t>Gambiran</t>
+  </si>
+  <si>
+    <t>Tegalsari</t>
+  </si>
+  <si>
+    <t>Glenmore</t>
+  </si>
+  <si>
+    <t>Kalibaru</t>
+  </si>
+  <si>
+    <t>Genteng</t>
+  </si>
+  <si>
+    <t>Srono</t>
+  </si>
+  <si>
+    <t>Rogojampi</t>
+  </si>
+  <si>
+    <t>Blimbingsari</t>
+  </si>
+  <si>
+    <t>Kabat</t>
+  </si>
+  <si>
+    <t>Singojuruh</t>
+  </si>
+  <si>
+    <t>Sempu</t>
+  </si>
+  <si>
+    <t>Songgon</t>
+  </si>
+  <si>
     <t>Glagah</t>
-  </si>
-  <si>
-    <t>Pesanggaran</t>
-  </si>
-  <si>
-    <t>Siliragung</t>
-  </si>
-  <si>
-    <t>Bangorejo</t>
-  </si>
-  <si>
-    <t>Purwoharjo</t>
-  </si>
-  <si>
-    <t>Tegaldlimo</t>
-  </si>
-  <si>
-    <t>Muncar</t>
-  </si>
-  <si>
-    <t>Cluring</t>
-  </si>
-  <si>
-    <t>Gambiran</t>
-  </si>
-  <si>
-    <t>Tegalsari</t>
-  </si>
-  <si>
-    <t>Glenmore</t>
-  </si>
-  <si>
-    <t>Kalibaru</t>
-  </si>
-  <si>
-    <t>Genteng</t>
-  </si>
-  <si>
-    <t>Srono</t>
-  </si>
-  <si>
-    <t>Rogojampi</t>
-  </si>
-  <si>
-    <t>Blimbingsari</t>
-  </si>
-  <si>
-    <t>Kabat</t>
-  </si>
-  <si>
-    <t>Singojuruh</t>
-  </si>
-  <si>
-    <t>Sempu</t>
-  </si>
-  <si>
-    <t>Songgon</t>
   </si>
   <si>
     <t>Licin</t>
@@ -135,15 +135,21 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -166,33 +172,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -206,19 +190,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -525,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +520,7 @@
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -568,12 +546,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>1000</v>
@@ -590,21 +568,19 @@
       <c r="G2" s="1">
         <v>27.2</v>
       </c>
-      <c r="H2" s="5">
-        <v>80</v>
-      </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H2" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D3" s="1">
         <v>2280</v>
@@ -618,18 +594,16 @@
       <c r="G3" s="1">
         <v>27.2</v>
       </c>
-      <c r="H3" s="5">
-        <v>80</v>
-      </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H3" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>500</v>
@@ -646,18 +620,16 @@
       <c r="G4" s="1">
         <v>27.2</v>
       </c>
-      <c r="H4" s="5">
-        <v>80</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H4" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>500</v>
@@ -674,22 +646,20 @@
       <c r="G5" s="1">
         <v>27.2</v>
       </c>
-      <c r="H5" s="5">
-        <v>80</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H5" s="6">
+        <v>80</v>
+      </c>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D6" s="1">
         <v>2046</v>
@@ -703,19 +673,17 @@
       <c r="G6" s="1">
         <v>27.2</v>
       </c>
-      <c r="H6" s="5">
-        <v>80</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H6" s="6">
+        <v>80</v>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1">
         <v>100</v>
@@ -732,22 +700,20 @@
       <c r="G7" s="1">
         <v>27.2</v>
       </c>
-      <c r="H7" s="5">
-        <v>80</v>
-      </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H7" s="6">
+        <v>80</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D8" s="1">
         <v>1831</v>
@@ -761,22 +727,20 @@
       <c r="G8" s="1">
         <v>27.2</v>
       </c>
-      <c r="H8" s="5">
-        <v>80</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H8" s="6">
+        <v>80</v>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="1">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="D9" s="1">
         <v>1831</v>
@@ -790,19 +754,17 @@
       <c r="G9" s="1">
         <v>27.2</v>
       </c>
-      <c r="H9" s="5">
-        <v>80</v>
-      </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H9" s="6">
+        <v>80</v>
+      </c>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
         <v>500</v>
@@ -819,22 +781,20 @@
       <c r="G10" s="1">
         <v>27.2</v>
       </c>
-      <c r="H10" s="5">
-        <v>80</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H10" s="6">
+        <v>80</v>
+      </c>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D11" s="1">
         <v>2931</v>
@@ -848,22 +808,20 @@
       <c r="G11" s="1">
         <v>27.2</v>
       </c>
-      <c r="H11" s="5">
-        <v>80</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H11" s="6">
+        <v>80</v>
+      </c>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D12" s="1">
         <v>3530</v>
@@ -877,19 +835,17 @@
       <c r="G12" s="1">
         <v>27.2</v>
       </c>
-      <c r="H12" s="5">
-        <v>80</v>
-      </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H12" s="6">
+        <v>80</v>
+      </c>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
         <v>500</v>
@@ -906,22 +862,20 @@
       <c r="G13" s="1">
         <v>27.2</v>
       </c>
-      <c r="H13" s="5">
-        <v>80</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H13" s="6">
+        <v>80</v>
+      </c>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D14" s="1">
         <v>2364</v>
@@ -935,21 +889,19 @@
       <c r="G14" s="1">
         <v>27.2</v>
       </c>
-      <c r="H14" s="5">
-        <v>80</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H14" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D15" s="1">
         <v>3357</v>
@@ -963,21 +915,19 @@
       <c r="G15" s="1">
         <v>27.2</v>
       </c>
-      <c r="H15" s="5">
-        <v>80</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H15" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D16" s="1">
         <v>2194</v>
@@ -991,21 +941,19 @@
       <c r="G16" s="1">
         <v>27.2</v>
       </c>
-      <c r="H16" s="5">
-        <v>80</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H16" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D17" s="1">
         <v>1853</v>
@@ -1019,21 +967,19 @@
       <c r="G17" s="1">
         <v>27.2</v>
       </c>
-      <c r="H17" s="5">
-        <v>80</v>
-      </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H17" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D18" s="1">
         <v>3236</v>
@@ -1047,21 +993,19 @@
       <c r="G18" s="1">
         <v>27.2</v>
       </c>
-      <c r="H18" s="5">
-        <v>80</v>
-      </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H18" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="D19" s="1">
         <v>3650</v>
@@ -1075,21 +1019,19 @@
       <c r="G19" s="1">
         <v>27.2</v>
       </c>
-      <c r="H19" s="5">
-        <v>80</v>
-      </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H19" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>27</v>
+      <c r="B20" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C20" s="1">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="D20" s="1">
         <v>4589</v>
@@ -1103,21 +1045,19 @@
       <c r="G20" s="1">
         <v>27.2</v>
       </c>
-      <c r="H20" s="5">
-        <v>80</v>
-      </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H20" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="D21" s="1">
         <v>3912</v>
@@ -1131,13 +1071,11 @@
       <c r="G21" s="1">
         <v>27.2</v>
       </c>
-      <c r="H21" s="5">
-        <v>80</v>
-      </c>
-      <c r="I21" s="9"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H21" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1145,7 +1083,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="1">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="D22" s="1">
         <v>3242</v>
@@ -1159,13 +1097,11 @@
       <c r="G22" s="1">
         <v>27.2</v>
       </c>
-      <c r="H22" s="5">
-        <v>80</v>
-      </c>
-      <c r="I22" s="9"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H22" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1187,13 +1123,11 @@
       <c r="G23" s="1">
         <v>27.2</v>
       </c>
-      <c r="H23" s="5">
-        <v>80</v>
-      </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H23" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1201,7 +1135,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D24" s="1">
         <v>2694</v>
@@ -1215,13 +1149,11 @@
       <c r="G24" s="1">
         <v>27.2</v>
       </c>
-      <c r="H24" s="5">
-        <v>80</v>
-      </c>
-      <c r="I24" s="9"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H24" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1229,7 +1161,7 @@
         <v>31</v>
       </c>
       <c r="C25" s="1">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="D25" s="1">
         <v>2241</v>
@@ -1243,13 +1175,11 @@
       <c r="G25" s="1">
         <v>27.2</v>
       </c>
-      <c r="H25" s="5">
-        <v>80</v>
-      </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H25" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1257,7 +1187,7 @@
         <v>32</v>
       </c>
       <c r="C26" s="1">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="D26" s="1">
         <v>2241</v>
@@ -1271,11 +1201,9 @@
       <c r="G26" s="1">
         <v>27.2</v>
       </c>
-      <c r="H26" s="5">
-        <v>80</v>
-      </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="6"/>
+      <c r="H26" s="6">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
